--- a/Code/Results/Cases/Case_2_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.17149499430656</v>
+        <v>15.67580543370389</v>
       </c>
       <c r="C2">
-        <v>13.33042390204389</v>
+        <v>9.258775060130167</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.920366341643525</v>
+        <v>11.45936321324002</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>31.21631964002174</v>
+        <v>35.36319745175258</v>
       </c>
       <c r="H2">
-        <v>10.26552582999807</v>
+        <v>15.74866973382392</v>
       </c>
       <c r="I2">
-        <v>15.54039448695425</v>
+        <v>24.05951020855206</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.323288758056567</v>
+        <v>10.09418631441885</v>
       </c>
       <c r="M2">
-        <v>12.08718444071559</v>
+        <v>15.14087804230605</v>
       </c>
       <c r="N2">
-        <v>12.11526931948697</v>
+        <v>18.3780669924703</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.78153863284196</v>
+        <v>15.2436934862816</v>
       </c>
       <c r="C3">
-        <v>12.55484834648327</v>
+        <v>8.902507102349899</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.962409901831439</v>
+        <v>11.47896006517825</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>30.08183222674987</v>
+        <v>35.28745719744976</v>
       </c>
       <c r="H3">
-        <v>10.20355470936327</v>
+        <v>15.79320754334969</v>
       </c>
       <c r="I3">
-        <v>15.57964783288735</v>
+        <v>24.15729846049818</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.238200935987712</v>
+        <v>10.10330432110615</v>
       </c>
       <c r="M3">
-        <v>11.54368836126686</v>
+        <v>15.06109967948958</v>
       </c>
       <c r="N3">
-        <v>12.33831749572933</v>
+        <v>18.44409461096154</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.87942600013992</v>
+        <v>14.97524832660323</v>
       </c>
       <c r="C4">
-        <v>12.05550863605506</v>
+        <v>8.674414206122655</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.989587905748867</v>
+        <v>11.49169694866751</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>29.40871307713068</v>
+        <v>35.25489072364117</v>
       </c>
       <c r="H4">
-        <v>10.17548914488221</v>
+        <v>15.82406261674195</v>
       </c>
       <c r="I4">
-        <v>15.62137481168312</v>
+        <v>24.22308378982684</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.188640506139347</v>
+        <v>10.11036736379387</v>
       </c>
       <c r="M4">
-        <v>11.20251751370501</v>
+        <v>15.01460747356043</v>
       </c>
       <c r="N4">
-        <v>12.47824731910435</v>
+        <v>18.48658081282228</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.4994762208576</v>
+        <v>14.86524249034978</v>
       </c>
       <c r="C5">
-        <v>11.84623951653615</v>
+        <v>8.579191148930843</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.00100319067544</v>
+        <v>11.49706488158269</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>29.14057820712512</v>
+        <v>35.24512630049497</v>
       </c>
       <c r="H5">
-        <v>10.16646418638893</v>
+        <v>15.83751605569234</v>
       </c>
       <c r="I5">
-        <v>15.64257551282459</v>
+        <v>24.25133121434729</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.169122656308666</v>
+        <v>10.11361419629674</v>
       </c>
       <c r="M5">
-        <v>11.06179535390432</v>
+        <v>14.99630291625177</v>
       </c>
       <c r="N5">
-        <v>12.53604549424357</v>
+        <v>18.50438487234383</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.43563843433383</v>
+        <v>14.84694439464452</v>
       </c>
       <c r="C6">
-        <v>11.8111425554115</v>
+        <v>8.563244545402945</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.0029191542789</v>
+        <v>11.49796695922755</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>29.09643476272642</v>
+        <v>35.24371667651607</v>
       </c>
       <c r="H6">
-        <v>10.16510833686979</v>
+        <v>15.83980304710574</v>
       </c>
       <c r="I6">
-        <v>15.64634254880387</v>
+        <v>24.25610847263988</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.165922788348166</v>
+        <v>10.11417559972676</v>
       </c>
       <c r="M6">
-        <v>11.03833224853972</v>
+        <v>14.9933026110945</v>
       </c>
       <c r="N6">
-        <v>12.54569045120996</v>
+        <v>18.50737089754561</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87435191396599</v>
+        <v>14.97376699162597</v>
       </c>
       <c r="C7">
-        <v>12.05270972097994</v>
+        <v>8.673139091618479</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.989740482833157</v>
+        <v>11.49176862300403</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>29.40507159826346</v>
+        <v>35.25474484017123</v>
       </c>
       <c r="H7">
-        <v>10.17535779757902</v>
+        <v>15.82424049593876</v>
       </c>
       <c r="I7">
-        <v>15.62164404734204</v>
+        <v>24.22345892286654</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.188374530809087</v>
+        <v>10.11040965896604</v>
       </c>
       <c r="M7">
-        <v>11.2006262741982</v>
+        <v>15.01435799609365</v>
       </c>
       <c r="N7">
-        <v>12.47902363010733</v>
+        <v>18.48681893624113</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.70228352113265</v>
+        <v>15.5275635575779</v>
       </c>
       <c r="C8">
-        <v>13.06782026505515</v>
+        <v>9.137915564971079</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.934578288854262</v>
+        <v>11.46597428648395</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>30.82043947096279</v>
+        <v>35.33419184084563</v>
       </c>
       <c r="H8">
-        <v>10.24202722924641</v>
+        <v>15.76329664879837</v>
       </c>
       <c r="I8">
-        <v>15.55012795991105</v>
+        <v>24.09203281085046</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.293395885933377</v>
+        <v>10.09702644248663</v>
       </c>
       <c r="M8">
-        <v>11.9014378565684</v>
+        <v>15.11286234868971</v>
       </c>
       <c r="N8">
-        <v>12.19157498980144</v>
+        <v>18.40043054442917</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.90501905947257</v>
+        <v>16.5816128298008</v>
       </c>
       <c r="C9">
-        <v>14.87446315427407</v>
+        <v>9.972353802657922</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.837364850691734</v>
+        <v>11.42096036954718</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>33.77079326774579</v>
+        <v>35.60027557812943</v>
       </c>
       <c r="H9">
-        <v>10.45625930788287</v>
+        <v>15.67173541820436</v>
       </c>
       <c r="I9">
-        <v>15.56045252738129</v>
+        <v>23.88008490864856</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.52044735141013</v>
+        <v>10.08238695538111</v>
       </c>
       <c r="M9">
-        <v>13.25076961529866</v>
+        <v>15.32511632525327</v>
       </c>
       <c r="N9">
-        <v>11.65022830413752</v>
+        <v>18.24638632120674</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.03168489655912</v>
+        <v>17.32775954361523</v>
       </c>
       <c r="C10">
-        <v>16.09032727710006</v>
+        <v>10.53526882486435</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.77286099901566</v>
+        <v>11.39125575413604</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>36.03161203078216</v>
+        <v>35.86226152184788</v>
       </c>
       <c r="H10">
-        <v>10.67017184284403</v>
+        <v>15.62164821052069</v>
       </c>
       <c r="I10">
-        <v>15.67466975320001</v>
+        <v>23.75256036138153</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.699860526307409</v>
+        <v>10.07868226031747</v>
       </c>
       <c r="M10">
-        <v>14.43841911648329</v>
+        <v>15.49172641037755</v>
       </c>
       <c r="N10">
-        <v>11.26423057571494</v>
+        <v>18.14247785819829</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.95149157343381</v>
+        <v>17.65943264698318</v>
       </c>
       <c r="C11">
-        <v>16.61970490201035</v>
+        <v>10.7799377760987</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.745085134190642</v>
+        <v>11.37846763178234</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>37.07827219324334</v>
+        <v>35.9956236961842</v>
       </c>
       <c r="H11">
-        <v>10.78089936556136</v>
+        <v>15.60262164421165</v>
       </c>
       <c r="I11">
-        <v>15.75298663327008</v>
+        <v>23.70072848125676</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.784161300940688</v>
+        <v>10.07852135412219</v>
       </c>
       <c r="M11">
-        <v>14.95289645482562</v>
+        <v>15.56961761611875</v>
       </c>
       <c r="N11">
-        <v>11.09073596003985</v>
+        <v>18.09719884080203</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.29307946843967</v>
+        <v>17.78379339549703</v>
       </c>
       <c r="C12">
-        <v>16.81680856594273</v>
+        <v>10.87091207741732</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.734799353342955</v>
+        <v>11.37372886722042</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>37.47712279807043</v>
+        <v>36.04813471910855</v>
       </c>
       <c r="H12">
-        <v>10.82484833570865</v>
+        <v>15.59595931384324</v>
       </c>
       <c r="I12">
-        <v>15.7866956360849</v>
+        <v>23.68199464907569</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.816465831485308</v>
+        <v>10.07867890708835</v>
       </c>
       <c r="M12">
-        <v>15.14407653588319</v>
+        <v>15.59939545329854</v>
       </c>
       <c r="N12">
-        <v>11.02530141534354</v>
+        <v>18.08033740003316</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.21980932668081</v>
+        <v>17.75706690389656</v>
       </c>
       <c r="C13">
-        <v>16.77450725426452</v>
+        <v>10.85139422154014</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.737004123944066</v>
+        <v>11.3747448336238</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>37.39111305400318</v>
+        <v>36.03673667490856</v>
       </c>
       <c r="H13">
-        <v>10.81529194194284</v>
+        <v>15.59736999993279</v>
       </c>
       <c r="I13">
-        <v>15.77925143541234</v>
+        <v>23.68598948297033</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.80949155522233</v>
+        <v>10.07863527044126</v>
       </c>
       <c r="M13">
-        <v>15.10306330075208</v>
+        <v>15.59297003498579</v>
       </c>
       <c r="N13">
-        <v>11.03938278998023</v>
+        <v>18.08395617026673</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.97972820655475</v>
+        <v>17.6696893227902</v>
       </c>
       <c r="C14">
-        <v>16.63598774161661</v>
+        <v>10.78745607650901</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.744234216496992</v>
+        <v>11.37807569225335</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>37.11103615388073</v>
+        <v>35.99990372046445</v>
       </c>
       <c r="H14">
-        <v>10.78447410628447</v>
+        <v>15.60206264354629</v>
       </c>
       <c r="I14">
-        <v>15.75567719115777</v>
+        <v>23.69916929580667</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.786811385952526</v>
+        <v>10.07852994176632</v>
       </c>
       <c r="M14">
-        <v>14.96869752686169</v>
+        <v>15.57206191724462</v>
       </c>
       <c r="N14">
-        <v>11.08534755031974</v>
+        <v>18.09580594092661</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.83179991860322</v>
+        <v>17.61600355918748</v>
       </c>
       <c r="C15">
-        <v>16.55070469324279</v>
+        <v>10.74807279282374</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.748693339978318</v>
+        <v>11.38012944840548</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>36.93980454233215</v>
+        <v>35.9776032244086</v>
       </c>
       <c r="H15">
-        <v>10.76586283338419</v>
+        <v>15.60500774981031</v>
       </c>
       <c r="I15">
-        <v>15.74177272276331</v>
+        <v>23.70735885915681</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.772968720453735</v>
+        <v>10.0784938552527</v>
       </c>
       <c r="M15">
-        <v>14.88592249750399</v>
+        <v>15.55929123848875</v>
       </c>
       <c r="N15">
-        <v>11.11353553659767</v>
+        <v>18.10310130968307</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.97062558763424</v>
+        <v>17.30591724883741</v>
       </c>
       <c r="C16">
-        <v>16.05525790660744</v>
+        <v>10.51904639349711</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.774708324720052</v>
+        <v>11.39210603694073</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>35.9635655252995</v>
+        <v>35.85382894618274</v>
       </c>
       <c r="H16">
-        <v>10.66321322013529</v>
+        <v>15.62296745815799</v>
       </c>
       <c r="I16">
-        <v>15.67010438460392</v>
+        <v>23.75607248913172</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.694404893487701</v>
+        <v>10.07872339079724</v>
       </c>
       <c r="M16">
-        <v>14.40428346889907</v>
+        <v>15.48667660358409</v>
       </c>
       <c r="N16">
-        <v>11.27560790633029</v>
+        <v>18.14547686645155</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.43021212487686</v>
+        <v>17.113613391312</v>
       </c>
       <c r="C17">
-        <v>15.74527339284734</v>
+        <v>10.37559737796404</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.791073701931562</v>
+        <v>11.39963861263492</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>35.36923732779568</v>
+        <v>35.78151034842868</v>
       </c>
       <c r="H17">
-        <v>10.60374180084666</v>
+        <v>15.63494935566708</v>
       </c>
       <c r="I17">
-        <v>15.63307609926493</v>
+        <v>23.78754317155828</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.646892679897158</v>
+        <v>10.07925414889599</v>
       </c>
       <c r="M17">
-        <v>14.10225410688926</v>
+        <v>15.44265367769028</v>
       </c>
       <c r="N17">
-        <v>11.37554527143035</v>
+        <v>18.17198148703697</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.11489002876679</v>
+        <v>17.00228212344755</v>
       </c>
       <c r="C18">
-        <v>15.56474149277145</v>
+        <v>10.2920177096257</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.800633673002661</v>
+        <v>11.40403938176419</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>35.02911225594442</v>
+        <v>35.74125170608153</v>
       </c>
       <c r="H18">
-        <v>10.57079314416831</v>
+        <v>15.64219466008303</v>
       </c>
       <c r="I18">
-        <v>15.61424386210042</v>
+        <v>23.80622563263935</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.619817828486303</v>
+        <v>10.07970295705026</v>
       </c>
       <c r="M18">
-        <v>13.92610292732814</v>
+        <v>15.41753167948855</v>
       </c>
       <c r="N18">
-        <v>11.43322641620649</v>
+        <v>18.18741358056592</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.00735243018759</v>
+        <v>16.96446696059058</v>
       </c>
       <c r="C19">
-        <v>15.50323092423569</v>
+        <v>10.26353623492015</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.803895574566583</v>
+        <v>11.4055411370775</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>34.91425102406536</v>
+        <v>35.7278513059011</v>
       </c>
       <c r="H19">
-        <v>10.5598505569265</v>
+        <v>15.64470846401354</v>
       </c>
       <c r="I19">
-        <v>15.6082830296372</v>
+        <v>23.81265088360725</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.610694341050022</v>
+        <v>10.07987958772284</v>
       </c>
       <c r="M19">
-        <v>13.86604152807175</v>
+        <v>15.40906054561427</v>
       </c>
       <c r="N19">
-        <v>11.45279168899658</v>
+        <v>18.19267083874923</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.48820393317238</v>
+        <v>17.13416022942429</v>
       </c>
       <c r="C20">
-        <v>15.77850296240701</v>
+        <v>10.39097895955796</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.78931631468166</v>
+        <v>11.39882969826961</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>35.43232790912228</v>
+        <v>35.78907060353078</v>
       </c>
       <c r="H20">
-        <v>10.60994181135645</v>
+        <v>15.63363724619602</v>
       </c>
       <c r="I20">
-        <v>15.63676075649206</v>
+        <v>23.78413285786697</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.651924295972012</v>
+        <v>10.07918279889552</v>
       </c>
       <c r="M20">
-        <v>14.13465686862592</v>
+        <v>15.44731955746792</v>
       </c>
       <c r="N20">
-        <v>11.36488635341322</v>
+        <v>18.16914064602691</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.05042727131591</v>
+        <v>17.69538871393686</v>
       </c>
       <c r="C21">
-        <v>16.6767650007044</v>
+        <v>10.80628202404964</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.742104196356613</v>
+        <v>11.37709452373719</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>37.19323421674085</v>
+        <v>36.01066817122238</v>
       </c>
       <c r="H21">
-        <v>10.7934705556264</v>
+        <v>15.60066955736025</v>
       </c>
       <c r="I21">
-        <v>15.76248946953964</v>
+        <v>23.69527376783762</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.793462772332084</v>
+        <v>10.0785549558983</v>
       </c>
       <c r="M21">
-        <v>15.0082622714387</v>
+        <v>15.57819564111009</v>
       </c>
       <c r="N21">
-        <v>11.07183972816557</v>
+        <v>18.09231765887622</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.03230813983666</v>
+        <v>18.05492714416807</v>
       </c>
       <c r="C22">
-        <v>17.24427847379488</v>
+        <v>11.06792138104012</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.712606663304258</v>
+        <v>11.36349429681842</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>38.35866803573326</v>
+        <v>36.1671918091186</v>
       </c>
       <c r="H22">
-        <v>10.92522525192639</v>
+        <v>15.58228695164367</v>
       </c>
       <c r="I22">
-        <v>15.86839902231199</v>
+        <v>23.64241115746134</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.88818988962573</v>
+        <v>10.07941772547293</v>
       </c>
       <c r="M22">
-        <v>15.55802486699164</v>
+        <v>15.66536572244525</v>
       </c>
       <c r="N22">
-        <v>10.88183723494909</v>
+        <v>18.04376847042213</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.51179602473345</v>
+        <v>17.86373607049641</v>
       </c>
       <c r="C23">
-        <v>16.94315463463115</v>
+        <v>10.92918556073526</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.728223159871598</v>
+        <v>11.37069776539591</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>37.73534239079885</v>
+        <v>36.08259298042076</v>
       </c>
       <c r="H23">
-        <v>10.8537956698089</v>
+        <v>15.59180794049896</v>
       </c>
       <c r="I23">
-        <v>15.80961510801703</v>
+        <v>23.67014635458972</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.837429898583084</v>
+        <v>10.07884102009462</v>
       </c>
       <c r="M23">
-        <v>15.26652128380943</v>
+        <v>15.6186984483056</v>
       </c>
       <c r="N23">
-        <v>10.98311898727585</v>
+        <v>18.06952871952959</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.46200027117633</v>
+        <v>17.12487340290657</v>
       </c>
       <c r="C24">
-        <v>15.76348709678815</v>
+        <v>10.38402839783409</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.790110358710177</v>
+        <v>11.39919518980155</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>35.40379978217689</v>
+        <v>35.78564850354192</v>
       </c>
       <c r="H24">
-        <v>10.60713492404419</v>
+        <v>15.63422933973828</v>
       </c>
       <c r="I24">
-        <v>15.63508729349408</v>
+        <v>23.78567282460022</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.649648752720074</v>
+        <v>10.07921460866321</v>
       </c>
       <c r="M24">
-        <v>14.12001540463933</v>
+        <v>15.44520952806187</v>
       </c>
       <c r="N24">
-        <v>11.36970454404901</v>
+        <v>18.1704243850788</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.07883163365851</v>
+        <v>16.30083581106041</v>
       </c>
       <c r="C25">
-        <v>14.40540265053725</v>
+        <v>9.755220612857329</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.862468306979021</v>
+        <v>11.43254454117894</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>32.95542208518749</v>
+        <v>35.51654266472634</v>
       </c>
       <c r="H25">
-        <v>10.38877333110633</v>
+        <v>15.69349758815241</v>
       </c>
       <c r="I25">
-        <v>15.54001521336018</v>
+        <v>23.93249183398241</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.456791205378357</v>
+        <v>10.08510706854142</v>
       </c>
       <c r="M25">
-        <v>12.86374618237543</v>
+        <v>15.26574978898244</v>
       </c>
       <c r="N25">
-        <v>11.7944744549852</v>
+        <v>18.28642482364857</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_90/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_90/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.67580543370389</v>
+        <v>20.17149499430657</v>
       </c>
       <c r="C2">
-        <v>9.258775060130167</v>
+        <v>13.33042390204381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.45936321324002</v>
+        <v>6.920366341643523</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>35.36319745175258</v>
+        <v>31.21631964002167</v>
       </c>
       <c r="H2">
-        <v>15.74866973382392</v>
+        <v>10.265525829998</v>
       </c>
       <c r="I2">
-        <v>24.05951020855206</v>
+        <v>15.54039448695424</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.09418631441885</v>
+        <v>6.323288758056561</v>
       </c>
       <c r="M2">
-        <v>15.14087804230605</v>
+        <v>12.08718444071561</v>
       </c>
       <c r="N2">
-        <v>18.3780669924703</v>
+        <v>12.11526931948684</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.2436934862816</v>
+        <v>18.781538632842</v>
       </c>
       <c r="C3">
-        <v>8.902507102349899</v>
+        <v>12.5548483464834</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.47896006517825</v>
+        <v>6.962409901831572</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>35.28745719744976</v>
+        <v>30.08183222674984</v>
       </c>
       <c r="H3">
-        <v>15.79320754334969</v>
+        <v>10.2035547093632</v>
       </c>
       <c r="I3">
-        <v>24.15729846049818</v>
+        <v>15.57964783288731</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.10330432110615</v>
+        <v>6.238200935987738</v>
       </c>
       <c r="M3">
-        <v>15.06109967948958</v>
+        <v>11.54368836126687</v>
       </c>
       <c r="N3">
-        <v>18.44409461096154</v>
+        <v>12.33831749572926</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.97524832660323</v>
+        <v>17.87942600013994</v>
       </c>
       <c r="C4">
-        <v>8.674414206122655</v>
+        <v>12.05550863605511</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.49169694866751</v>
+        <v>6.989587905749067</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>35.25489072364117</v>
+        <v>29.40871307713081</v>
       </c>
       <c r="H4">
-        <v>15.82406261674195</v>
+        <v>10.17548914488223</v>
       </c>
       <c r="I4">
-        <v>24.22308378982684</v>
+        <v>15.62137481168315</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.11036736379387</v>
+        <v>6.188640506139423</v>
       </c>
       <c r="M4">
-        <v>15.01460747356043</v>
+        <v>11.20251751370505</v>
       </c>
       <c r="N4">
-        <v>18.48658081282228</v>
+        <v>12.47824731910438</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.86524249034978</v>
+        <v>17.49947622085769</v>
       </c>
       <c r="C5">
-        <v>8.579191148930843</v>
+        <v>11.84623951653596</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.49706488158269</v>
+        <v>7.00100319067544</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>35.24512630049497</v>
+        <v>29.14057820712515</v>
       </c>
       <c r="H5">
-        <v>15.83751605569234</v>
+        <v>10.16646418638896</v>
       </c>
       <c r="I5">
-        <v>24.25133121434729</v>
+        <v>15.64257551282454</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.11361419629674</v>
+        <v>6.169122656308717</v>
       </c>
       <c r="M5">
-        <v>14.99630291625177</v>
+        <v>11.0617953539043</v>
       </c>
       <c r="N5">
-        <v>18.50438487234383</v>
+        <v>12.53604549424353</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.84694439464452</v>
+        <v>17.43563843433387</v>
       </c>
       <c r="C6">
-        <v>8.563244545402945</v>
+        <v>11.81114255541156</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.49796695922755</v>
+        <v>7.002919154278834</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>35.24371667651607</v>
+        <v>29.09643476272625</v>
       </c>
       <c r="H6">
-        <v>15.83980304710574</v>
+        <v>10.16510833686975</v>
       </c>
       <c r="I6">
-        <v>24.25610847263988</v>
+        <v>15.64634254880378</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.11417559972676</v>
+        <v>6.165922788348111</v>
       </c>
       <c r="M6">
-        <v>14.9933026110945</v>
+        <v>11.0383322485397</v>
       </c>
       <c r="N6">
-        <v>18.50737089754561</v>
+        <v>12.54569045120989</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.97376699162597</v>
+        <v>17.874351913966</v>
       </c>
       <c r="C7">
-        <v>8.673139091618479</v>
+        <v>12.05270972097984</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.49176862300403</v>
+        <v>6.989740482833224</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>35.25474484017123</v>
+        <v>29.40507159826354</v>
       </c>
       <c r="H7">
-        <v>15.82424049593876</v>
+        <v>10.17535779757908</v>
       </c>
       <c r="I7">
-        <v>24.22345892286654</v>
+        <v>15.62164404734212</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.11040965896604</v>
+        <v>6.18837453080913</v>
       </c>
       <c r="M7">
-        <v>15.01435799609365</v>
+        <v>11.20062627419821</v>
       </c>
       <c r="N7">
-        <v>18.48681893624113</v>
+        <v>12.4790236301074</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.5275635575779</v>
+        <v>19.70228352113261</v>
       </c>
       <c r="C8">
-        <v>9.137915564971079</v>
+        <v>13.0678202650552</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.46597428648395</v>
+        <v>6.93457828885433</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>35.33419184084563</v>
+        <v>30.82043947096286</v>
       </c>
       <c r="H8">
-        <v>15.76329664879837</v>
+        <v>10.24202722924654</v>
       </c>
       <c r="I8">
-        <v>24.09203281085046</v>
+        <v>15.55012795991118</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.09702644248663</v>
+        <v>6.293395885933371</v>
       </c>
       <c r="M8">
-        <v>15.11286234868971</v>
+        <v>11.90143785656844</v>
       </c>
       <c r="N8">
-        <v>18.40043054442917</v>
+        <v>12.19157498980148</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.5816128298008</v>
+        <v>22.90501905947251</v>
       </c>
       <c r="C9">
-        <v>9.972353802657922</v>
+        <v>14.87446315427407</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.42096036954718</v>
+        <v>6.837364850691667</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>35.60027557812943</v>
+        <v>33.77079326774583</v>
       </c>
       <c r="H9">
-        <v>15.67173541820436</v>
+        <v>10.4562593078829</v>
       </c>
       <c r="I9">
-        <v>23.88008490864856</v>
+        <v>15.56045252738139</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.08238695538111</v>
+        <v>6.520447351410061</v>
       </c>
       <c r="M9">
-        <v>15.32511632525327</v>
+        <v>13.25076961529865</v>
       </c>
       <c r="N9">
-        <v>18.24638632120674</v>
+        <v>11.65022830413752</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.32775954361523</v>
+        <v>25.0316848965591</v>
       </c>
       <c r="C10">
-        <v>10.53526882486435</v>
+        <v>16.09032727710012</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.39125575413604</v>
+        <v>6.772860999015728</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>35.86226152184788</v>
+        <v>36.03161203078217</v>
       </c>
       <c r="H10">
-        <v>15.62164821052069</v>
+        <v>10.67017184284413</v>
       </c>
       <c r="I10">
-        <v>23.75256036138153</v>
+        <v>15.67466975320005</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.07868226031747</v>
+        <v>6.699860526307442</v>
       </c>
       <c r="M10">
-        <v>15.49172641037755</v>
+        <v>14.43841911648328</v>
       </c>
       <c r="N10">
-        <v>18.14247785819829</v>
+        <v>11.2642305757149</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.65943264698318</v>
+        <v>25.95149157343384</v>
       </c>
       <c r="C11">
-        <v>10.7799377760987</v>
+        <v>16.6197049020102</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.37846763178234</v>
+        <v>6.745085134190576</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>35.9956236961842</v>
+        <v>37.07827219324336</v>
       </c>
       <c r="H11">
-        <v>15.60262164421165</v>
+        <v>10.78089936556137</v>
       </c>
       <c r="I11">
-        <v>23.70072848125676</v>
+        <v>15.75298663327009</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.07852135412219</v>
+        <v>6.784161300940661</v>
       </c>
       <c r="M11">
-        <v>15.56961761611875</v>
+        <v>14.95289645482563</v>
       </c>
       <c r="N11">
-        <v>18.09719884080203</v>
+        <v>11.09073596003982</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78379339549703</v>
+        <v>26.29307946843962</v>
       </c>
       <c r="C12">
-        <v>10.87091207741732</v>
+        <v>16.81680856594273</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.37372886722042</v>
+        <v>6.734799353342955</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>36.04813471910855</v>
+        <v>37.47712279807041</v>
       </c>
       <c r="H12">
-        <v>15.59595931384324</v>
+        <v>10.82484833570867</v>
       </c>
       <c r="I12">
-        <v>23.68199464907569</v>
+        <v>15.78669563608498</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.07867890708835</v>
+        <v>6.816465831485299</v>
       </c>
       <c r="M12">
-        <v>15.59939545329854</v>
+        <v>15.14407653588315</v>
       </c>
       <c r="N12">
-        <v>18.08033740003316</v>
+        <v>11.02530141534358</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.75706690389656</v>
+        <v>26.21980932668081</v>
       </c>
       <c r="C13">
-        <v>10.85139422154014</v>
+        <v>16.77450725426434</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.3747448336238</v>
+        <v>6.737004123944003</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>36.03673667490856</v>
+        <v>37.39111305400321</v>
       </c>
       <c r="H13">
-        <v>15.59736999993279</v>
+        <v>10.81529194194288</v>
       </c>
       <c r="I13">
-        <v>23.68598948297033</v>
+        <v>15.77925143541237</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.07863527044126</v>
+        <v>6.809491555222327</v>
       </c>
       <c r="M13">
-        <v>15.59297003498579</v>
+        <v>15.10306330075207</v>
       </c>
       <c r="N13">
-        <v>18.08395617026673</v>
+        <v>11.03938278998019</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.6696893227902</v>
+        <v>25.97972820655482</v>
       </c>
       <c r="C14">
-        <v>10.78745607650901</v>
+        <v>16.63598774161644</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.37807569225335</v>
+        <v>6.744234216496858</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>35.99990372046445</v>
+        <v>37.11103615388082</v>
       </c>
       <c r="H14">
-        <v>15.60206264354629</v>
+        <v>10.78447410628442</v>
       </c>
       <c r="I14">
-        <v>23.69916929580667</v>
+        <v>15.75567719115776</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.07852994176632</v>
+        <v>6.786811385952523</v>
       </c>
       <c r="M14">
-        <v>15.57206191724462</v>
+        <v>14.96869752686172</v>
       </c>
       <c r="N14">
-        <v>18.09580594092661</v>
+        <v>11.08534755031973</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.61600355918748</v>
+        <v>25.83179991860319</v>
       </c>
       <c r="C15">
-        <v>10.74807279282374</v>
+        <v>16.55070469324287</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.38012944840548</v>
+        <v>6.748693339978449</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>35.9776032244086</v>
+        <v>36.93980454233219</v>
       </c>
       <c r="H15">
-        <v>15.60500774981031</v>
+        <v>10.76586283338423</v>
       </c>
       <c r="I15">
-        <v>23.70735885915681</v>
+        <v>15.7417727227634</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.0784938552527</v>
+        <v>6.772968720453741</v>
       </c>
       <c r="M15">
-        <v>15.55929123848875</v>
+        <v>14.88592249750395</v>
       </c>
       <c r="N15">
-        <v>18.10310130968307</v>
+        <v>11.1135355365977</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.30591724883741</v>
+        <v>24.97062558763423</v>
       </c>
       <c r="C16">
-        <v>10.51904639349711</v>
+        <v>16.05525790660768</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.39210603694073</v>
+        <v>6.774708324720119</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>35.85382894618274</v>
+        <v>35.96356552529958</v>
       </c>
       <c r="H16">
-        <v>15.62296745815799</v>
+        <v>10.66321322013534</v>
       </c>
       <c r="I16">
-        <v>23.75607248913172</v>
+        <v>15.67010438460401</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.07872339079724</v>
+        <v>6.6944048934877</v>
       </c>
       <c r="M16">
-        <v>15.48667660358409</v>
+        <v>14.40428346889906</v>
       </c>
       <c r="N16">
-        <v>18.14547686645155</v>
+        <v>11.27560790633042</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.113613391312</v>
+        <v>24.43021212487684</v>
       </c>
       <c r="C17">
-        <v>10.37559737796404</v>
+        <v>15.74527339284724</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.39963861263492</v>
+        <v>6.791073701931563</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>35.78151034842868</v>
+        <v>35.36923732779572</v>
       </c>
       <c r="H17">
-        <v>15.63494935566708</v>
+        <v>10.60374180084669</v>
       </c>
       <c r="I17">
-        <v>23.78754317155828</v>
+        <v>15.63307609926497</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.07925414889599</v>
+        <v>6.646892679897129</v>
       </c>
       <c r="M17">
-        <v>15.44265367769028</v>
+        <v>14.10225410688926</v>
       </c>
       <c r="N17">
-        <v>18.17198148703697</v>
+        <v>11.37554527143042</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.00228212344755</v>
+        <v>24.11489002876698</v>
       </c>
       <c r="C18">
-        <v>10.2920177096257</v>
+        <v>15.56474149277115</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.40403938176419</v>
+        <v>6.800633673002593</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>35.74125170608153</v>
+        <v>35.0291122559444</v>
       </c>
       <c r="H18">
-        <v>15.64219466008303</v>
+        <v>10.57079314416818</v>
       </c>
       <c r="I18">
-        <v>23.80622563263935</v>
+        <v>15.61424386210018</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.07970295705026</v>
+        <v>6.619817828486381</v>
       </c>
       <c r="M18">
-        <v>15.41753167948855</v>
+        <v>13.92610292732822</v>
       </c>
       <c r="N18">
-        <v>18.18741358056592</v>
+        <v>11.43322641620639</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.96446696059058</v>
+        <v>24.00735243018761</v>
       </c>
       <c r="C19">
-        <v>10.26353623492015</v>
+        <v>15.50323092423586</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.4055411370775</v>
+        <v>6.803895574566648</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>35.7278513059011</v>
+        <v>34.91425102406543</v>
       </c>
       <c r="H19">
-        <v>15.64470846401354</v>
+        <v>10.55985055692647</v>
       </c>
       <c r="I19">
-        <v>23.81265088360725</v>
+        <v>15.60828302963721</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.07987958772284</v>
+        <v>6.610694341050022</v>
       </c>
       <c r="M19">
-        <v>15.40906054561427</v>
+        <v>13.86604152807176</v>
       </c>
       <c r="N19">
-        <v>18.19267083874923</v>
+        <v>11.45279168899658</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.13416022942429</v>
+        <v>24.48820393317233</v>
       </c>
       <c r="C20">
-        <v>10.39097895955796</v>
+        <v>15.77850296240701</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.39882969826961</v>
+        <v>6.789316314681594</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>35.78907060353078</v>
+        <v>35.43232790912239</v>
       </c>
       <c r="H20">
-        <v>15.63363724619602</v>
+        <v>10.6099418113565</v>
       </c>
       <c r="I20">
-        <v>23.78413285786697</v>
+        <v>15.63676075649223</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.07918279889552</v>
+        <v>6.651924295971965</v>
       </c>
       <c r="M20">
-        <v>15.44731955746792</v>
+        <v>14.1346568686259</v>
       </c>
       <c r="N20">
-        <v>18.16914064602691</v>
+        <v>11.36488635341331</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.69538871393686</v>
+        <v>26.05042727131595</v>
       </c>
       <c r="C21">
-        <v>10.80628202404964</v>
+        <v>16.67676500070449</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.37709452373719</v>
+        <v>6.74210419635668</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>36.01066817122238</v>
+        <v>37.19323421674085</v>
       </c>
       <c r="H21">
-        <v>15.60066955736025</v>
+        <v>10.79347055562641</v>
       </c>
       <c r="I21">
-        <v>23.69527376783762</v>
+        <v>15.76248946953964</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.0785549558983</v>
+        <v>6.793462772332102</v>
       </c>
       <c r="M21">
-        <v>15.57819564111009</v>
+        <v>15.00826227143872</v>
       </c>
       <c r="N21">
-        <v>18.09231765887622</v>
+        <v>11.07183972816557</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.05492714416807</v>
+        <v>27.03230813983675</v>
       </c>
       <c r="C22">
-        <v>11.06792138104012</v>
+        <v>17.24427847379496</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.36349429681842</v>
+        <v>6.712606663304123</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>36.1671918091186</v>
+        <v>38.35866803573328</v>
       </c>
       <c r="H22">
-        <v>15.58228695164367</v>
+        <v>10.92522525192634</v>
       </c>
       <c r="I22">
-        <v>23.64241115746134</v>
+        <v>15.8683990223119</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.07941772547293</v>
+        <v>6.888189889625675</v>
       </c>
       <c r="M22">
-        <v>15.66536572244525</v>
+        <v>15.55802486699173</v>
       </c>
       <c r="N22">
-        <v>18.04376847042213</v>
+        <v>10.88183723494903</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.86373607049641</v>
+        <v>26.51179602473339</v>
       </c>
       <c r="C23">
-        <v>10.92918556073526</v>
+        <v>16.94315463463111</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.37069776539591</v>
+        <v>6.728223159871599</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>36.08259298042076</v>
+        <v>37.73534239079895</v>
       </c>
       <c r="H23">
-        <v>15.59180794049896</v>
+        <v>10.85379566980894</v>
       </c>
       <c r="I23">
-        <v>23.67014635458972</v>
+        <v>15.80961510801715</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.07884102009462</v>
+        <v>6.837429898583054</v>
       </c>
       <c r="M23">
-        <v>15.6186984483056</v>
+        <v>15.26652128380938</v>
       </c>
       <c r="N23">
-        <v>18.06952871952959</v>
+        <v>10.98311898727591</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.12487340290657</v>
+        <v>24.46200027117635</v>
       </c>
       <c r="C24">
-        <v>10.38402839783409</v>
+        <v>15.7634870967879</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.39919518980155</v>
+        <v>6.790110358710176</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>35.78564850354192</v>
+        <v>35.40379978217686</v>
       </c>
       <c r="H24">
-        <v>15.63422933973828</v>
+        <v>10.60713492404422</v>
       </c>
       <c r="I24">
-        <v>23.78567282460022</v>
+        <v>15.6350872934941</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.07921460866321</v>
+        <v>6.649648752720143</v>
       </c>
       <c r="M24">
-        <v>15.44520952806187</v>
+        <v>14.1200154046393</v>
       </c>
       <c r="N24">
-        <v>18.1704243850788</v>
+        <v>11.36970454404908</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.30083581106041</v>
+        <v>22.07883163365859</v>
       </c>
       <c r="C25">
-        <v>9.755220612857329</v>
+        <v>14.40540265053721</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.43254454117894</v>
+        <v>6.862468306978956</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>35.51654266472634</v>
+        <v>32.95542208518759</v>
       </c>
       <c r="H25">
-        <v>15.69349758815241</v>
+        <v>10.38877333110624</v>
       </c>
       <c r="I25">
-        <v>23.93249183398241</v>
+        <v>15.54001521336006</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.08510706854142</v>
+        <v>6.456791205378434</v>
       </c>
       <c r="M25">
-        <v>15.26574978898244</v>
+        <v>12.86374618237542</v>
       </c>
       <c r="N25">
-        <v>18.28642482364857</v>
+        <v>11.7944744549851</v>
       </c>
       <c r="O25">
         <v>0</v>
